--- a/biology/Botanique/Mibora_minima/Mibora_minima.xlsx
+++ b/biology/Botanique/Mibora_minima/Mibora_minima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mibora minima est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Europe  et d'Afrique du Nord.
-Ce sont des plantes herbacées annuelles, cespiteuses, de petite taille (de 2 à 15 cm de haut), aux inflorescences en racèmes ou épis lâches de couleur violette de 0,5 à 2 cm de long[2],[3].
+Ce sont des plantes herbacées annuelles, cespiteuses, de petite taille (de 2 à 15 cm de haut), aux inflorescences en racèmes ou épis lâches de couleur violette de 0,5 à 2 cm de long,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 novembre 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 novembre 2016) :
 Agrostis minima L.
 Chamagrostis desvauxii (Lange) Nyman
 Chamagrostis littorea Samp., pro syn.
